--- a/teaching/traditional_assets/database/data/egypt/egypt_household_products.xlsx
+++ b/teaching/traditional_assets/database/data/egypt/egypt_household_products.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.2465</v>
+        <v>0.19645</v>
       </c>
       <c r="G2">
-        <v>-0.01127772848269743</v>
+        <v>0.01113089937666963</v>
       </c>
       <c r="H2">
-        <v>-0.01127772848269743</v>
+        <v>0.01113089937666963</v>
       </c>
       <c r="I2">
-        <v>-0.02464063886424134</v>
+        <v>-0.0002671415850400714</v>
       </c>
       <c r="J2">
-        <v>-0.02464063886424134</v>
+        <v>-0.0002671415850400714</v>
       </c>
       <c r="K2">
-        <v>-4.250999999999999</v>
+        <v>-2.02</v>
       </c>
       <c r="L2">
-        <v>-0.03771960958296362</v>
+        <v>-0.01798753339269812</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,70 +633,70 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>23.95</v>
+        <v>3.03</v>
       </c>
       <c r="V2">
-        <v>1.483890954151177</v>
+        <v>0.1333040035195777</v>
       </c>
       <c r="W2">
-        <v>-0.2044284851838808</v>
+        <v>0.1366134654191891</v>
       </c>
       <c r="X2">
-        <v>0.1551828674532908</v>
+        <v>0.09978267300828686</v>
       </c>
       <c r="Y2">
-        <v>-0.3596113526371717</v>
+        <v>0.03683079241090229</v>
       </c>
       <c r="Z2">
-        <v>7.414961510625699</v>
+        <v>9.245842252593448</v>
       </c>
       <c r="AA2">
-        <v>-0.241958233980366</v>
+        <v>0.6331706136769198</v>
       </c>
       <c r="AB2">
-        <v>0.1262828274765574</v>
+        <v>0.09800787880243006</v>
       </c>
       <c r="AC2">
-        <v>-0.3682410614569235</v>
+        <v>0.5351627348744897</v>
       </c>
       <c r="AD2">
-        <v>7.295000000000001</v>
+        <v>1.091</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>7.295000000000001</v>
+        <v>1.091</v>
       </c>
       <c r="AG2">
-        <v>-16.655</v>
+        <v>-1.939</v>
       </c>
       <c r="AH2">
-        <v>0.3112865372306379</v>
+        <v>0.04579992443642164</v>
       </c>
       <c r="AI2">
-        <v>0.2544915402058259</v>
+        <v>0.08308582743126952</v>
       </c>
       <c r="AJ2">
-        <v>32.33980582524268</v>
+        <v>-0.09326150738300228</v>
       </c>
       <c r="AK2">
-        <v>-3.532343584305409</v>
+        <v>-0.191961191961192</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.113</v>
+        <v>-0.13</v>
       </c>
       <c r="AN2">
-        <v>-4.752442996742671</v>
+        <v>0.8590551181102362</v>
       </c>
       <c r="AP2">
-        <v>10.85016286644951</v>
+        <v>-1.526771653543307</v>
       </c>
       <c r="AQ2">
-        <v>24.57522123893805</v>
+        <v>0.230769230769231</v>
       </c>
     </row>
     <row r="3">
@@ -707,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The General Company for Ceramic and Porcelain Products (CASE:PRCL)</t>
+          <t>Misr Oil &amp; Soap (CASE:MOSC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -716,25 +716,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.064</v>
+        <v>0.335</v>
       </c>
       <c r="G3">
-        <v>-0.05046979865771812</v>
+        <v>0.01912225705329153</v>
       </c>
       <c r="H3">
-        <v>-0.05046979865771812</v>
+        <v>0.01912225705329153</v>
       </c>
       <c r="I3">
-        <v>-0.1516778523489933</v>
+        <v>0.01661442006269593</v>
       </c>
       <c r="J3">
-        <v>-0.1516778523489933</v>
+        <v>0.01661442006269593</v>
       </c>
       <c r="K3">
-        <v>-3.88</v>
+        <v>1.34</v>
       </c>
       <c r="L3">
-        <v>-0.2604026845637584</v>
+        <v>0.01400208986415883</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -743,7 +743,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -752,76 +752,76 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>22.6</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>2.609699769053118</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="W3">
-        <v>-0.279136690647482</v>
+        <v>0.5654008438818565</v>
       </c>
       <c r="X3">
-        <v>0.1875897370310108</v>
+        <v>0.09849641417084223</v>
       </c>
       <c r="Y3">
-        <v>-0.4667264276784928</v>
+        <v>0.4669044297110143</v>
       </c>
       <c r="Z3">
-        <v>1.09801031687546</v>
+        <v>85.06666666666666</v>
       </c>
       <c r="AA3">
-        <v>-0.1665438467207074</v>
+        <v>1.413333333333333</v>
       </c>
       <c r="AB3">
-        <v>0.1306930878037872</v>
+        <v>0.09744941919653284</v>
       </c>
       <c r="AC3">
-        <v>-0.2972369345244946</v>
+        <v>1.3158839141368</v>
       </c>
       <c r="AD3">
-        <v>7.19</v>
+        <v>0.185</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>7.19</v>
+        <v>0.185</v>
       </c>
       <c r="AG3">
-        <v>-15.41</v>
+        <v>-1.765</v>
       </c>
       <c r="AH3">
-        <v>0.4536277602523659</v>
+        <v>0.02279728897104128</v>
       </c>
       <c r="AI3">
-        <v>0.2745322642229859</v>
+        <v>0.04993252361673414</v>
       </c>
       <c r="AJ3">
-        <v>2.282962962962963</v>
+        <v>-0.2862935928629359</v>
       </c>
       <c r="AK3">
-        <v>-4.292479108635098</v>
+        <v>-1.005698005698006</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.06900000000000001</v>
+        <v>-0.035</v>
       </c>
       <c r="AN3">
-        <v>-5.661417322834646</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="AP3">
-        <v>12.13385826771654</v>
+        <v>-0.954054054054054</v>
       </c>
       <c r="AQ3">
-        <v>32.75362318840579</v>
+        <v>-45.42857142857142</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +832,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Misr Oil &amp; Soap (CASE:MOSC)</t>
+          <t>The General Company for Ceramic and Porcelain Products (CASE:PRCL)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -841,25 +841,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.429</v>
+        <v>0.0579</v>
       </c>
       <c r="G4">
-        <v>-0.005306748466257669</v>
+        <v>-0.03493975903614457</v>
       </c>
       <c r="H4">
-        <v>-0.005306748466257669</v>
+        <v>-0.03493975903614457</v>
       </c>
       <c r="I4">
-        <v>-0.005286298568507158</v>
+        <v>-0.09759036144578313</v>
       </c>
       <c r="J4">
-        <v>-0.005286298568507158</v>
+        <v>-0.09759036144578313</v>
       </c>
       <c r="K4">
-        <v>-0.371</v>
+        <v>-3.36</v>
       </c>
       <c r="L4">
-        <v>-0.003793456032719837</v>
+        <v>-0.2024096385542168</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -883,70 +883,70 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.35</v>
+        <v>1.08</v>
       </c>
       <c r="V4">
-        <v>0.1804812834224599</v>
+        <v>0.07297297297297298</v>
       </c>
       <c r="W4">
-        <v>-0.1297202797202797</v>
+        <v>-0.2921739130434782</v>
       </c>
       <c r="X4">
-        <v>0.1227759978755709</v>
+        <v>0.1010689318457315</v>
       </c>
       <c r="Y4">
-        <v>-0.2524962775958506</v>
+        <v>-0.3932428448892097</v>
       </c>
       <c r="Z4">
-        <v>60.03683241252303</v>
+        <v>1.506215406950368</v>
       </c>
       <c r="AA4">
-        <v>-0.3173726212400246</v>
+        <v>-0.1469921059794937</v>
       </c>
       <c r="AB4">
-        <v>0.1218725671493277</v>
+        <v>0.09856633840832729</v>
       </c>
       <c r="AC4">
-        <v>-0.4392451883893523</v>
+        <v>-0.245558444387821</v>
       </c>
       <c r="AD4">
-        <v>0.105</v>
+        <v>0.906</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.105</v>
+        <v>0.906</v>
       </c>
       <c r="AG4">
-        <v>-1.245</v>
+        <v>-0.174</v>
       </c>
       <c r="AH4">
-        <v>0.01384311140408701</v>
+        <v>0.05768496116133962</v>
       </c>
       <c r="AI4">
-        <v>0.04242424242424242</v>
+        <v>0.09611712285168683</v>
       </c>
       <c r="AJ4">
-        <v>-0.1996792301523657</v>
+        <v>-0.0118966224531656</v>
       </c>
       <c r="AK4">
-        <v>-1.106666666666667</v>
+        <v>-0.02084831056793674</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>-0.044</v>
+        <v>-0.095</v>
       </c>
       <c r="AN4">
-        <v>-0.3962264150943396</v>
+        <v>-1.562068965517242</v>
       </c>
       <c r="AP4">
-        <v>4.69811320754717</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="AQ4">
-        <v>11.75</v>
+        <v>17.05263157894737</v>
       </c>
     </row>
   </sheetData>
